--- a/kink.xlsx
+++ b/kink.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahall\Desktop\Python Stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D70A37-9430-4128-9E87-1799C6403D3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF01E21A-9A8D-4A03-B894-448D4C0EA5F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="36060" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controls" sheetId="1" r:id="rId1"/>
-    <sheet name="Responses" sheetId="2" r:id="rId2"/>
-    <sheet name="Furry" sheetId="3" r:id="rId3"/>
+    <sheet name="Sexy Time" sheetId="4" r:id="rId2"/>
+    <sheet name="Responses" sheetId="2" r:id="rId3"/>
+    <sheet name="Furry" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Dominant</t>
   </si>
@@ -184,6 +185,9 @@
   </si>
   <si>
     <t>Relationship</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1119,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1984,10 +1988,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC931DAD-5BCE-4C7D-9818-2D4A288CCFCB}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C3756E-CF0A-4D87-B367-0F27A8F21A32}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -3884,7 +3951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC665FAA-E953-451C-A9FD-79A022A09A81}">
   <dimension ref="A1:F23"/>
   <sheetViews>
